--- a/Code/Results/Cases/Case_9_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00886853412802</v>
+        <v>1.00827752560582</v>
       </c>
       <c r="D2">
-        <v>1.028048164834519</v>
+        <v>1.026899355091406</v>
       </c>
       <c r="E2">
-        <v>1.022268939036569</v>
+        <v>1.021847779746609</v>
       </c>
       <c r="F2">
-        <v>1.029678957912553</v>
+        <v>1.029326181316567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050752535934126</v>
+        <v>1.05016923021383</v>
       </c>
       <c r="J2">
-        <v>1.03078718622824</v>
+        <v>1.030213444914234</v>
       </c>
       <c r="K2">
-        <v>1.039130098888793</v>
+        <v>1.03799623966774</v>
       </c>
       <c r="L2">
-        <v>1.033426510639768</v>
+        <v>1.033010905355806</v>
       </c>
       <c r="M2">
-        <v>1.040739740648321</v>
+        <v>1.040391532440216</v>
       </c>
       <c r="N2">
-        <v>1.013607612617241</v>
+        <v>1.014867171270087</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040815162456067</v>
+        <v>1.040539579073826</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038738644325228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037945681259808</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022097643010401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013654009706289</v>
+        <v>1.012747183131558</v>
       </c>
       <c r="D3">
-        <v>1.031368690807327</v>
+        <v>1.029868190645007</v>
       </c>
       <c r="E3">
-        <v>1.026084260013722</v>
+        <v>1.025399315918916</v>
       </c>
       <c r="F3">
-        <v>1.033286415149296</v>
+        <v>1.032723356666329</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051947069379804</v>
+        <v>1.051184388369908</v>
       </c>
       <c r="J3">
-        <v>1.033779248982114</v>
+        <v>1.032896277724618</v>
       </c>
       <c r="K3">
-        <v>1.041615339289065</v>
+        <v>1.040132649946194</v>
       </c>
       <c r="L3">
-        <v>1.036393921235861</v>
+        <v>1.035717203565696</v>
       </c>
       <c r="M3">
-        <v>1.04351039364598</v>
+        <v>1.042953980430197</v>
       </c>
       <c r="N3">
-        <v>1.014662030488827</v>
+        <v>1.015609098998323</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043007944255859</v>
+        <v>1.042567581893844</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040493264079467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039453365934791</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022569482120819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016684103604249</v>
+        <v>1.015580042590287</v>
       </c>
       <c r="D4">
-        <v>1.03347172587631</v>
+        <v>1.031750329123637</v>
       </c>
       <c r="E4">
-        <v>1.028506527013516</v>
+        <v>1.02765676770145</v>
       </c>
       <c r="F4">
-        <v>1.035580201180223</v>
+        <v>1.034885838552952</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052688260751867</v>
+        <v>1.051812695801122</v>
       </c>
       <c r="J4">
-        <v>1.03567044718673</v>
+        <v>1.034593434701432</v>
       </c>
       <c r="K4">
-        <v>1.043182287229005</v>
+        <v>1.041480081866237</v>
       </c>
       <c r="L4">
-        <v>1.038272659067951</v>
+        <v>1.037432476595068</v>
       </c>
       <c r="M4">
-        <v>1.045267362603969</v>
+        <v>1.044580693087177</v>
       </c>
       <c r="N4">
-        <v>1.015328261496679</v>
+        <v>1.016078510762888</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044398461241791</v>
+        <v>1.043855011075505</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041602124109748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040407089649561</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022864549668701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017947083096892</v>
+        <v>1.016761104382542</v>
       </c>
       <c r="D5">
-        <v>1.034350163805667</v>
+        <v>1.032537034014835</v>
       </c>
       <c r="E5">
-        <v>1.029518296991631</v>
+        <v>1.028599958838052</v>
       </c>
       <c r="F5">
-        <v>1.036538397518972</v>
+        <v>1.035789441643192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0529949023025</v>
+        <v>1.052072408205363</v>
       </c>
       <c r="J5">
-        <v>1.036459449025654</v>
+        <v>1.035301644957896</v>
       </c>
       <c r="K5">
-        <v>1.043836298404824</v>
+        <v>1.042042840735905</v>
       </c>
       <c r="L5">
-        <v>1.039057045197695</v>
+        <v>1.038148775373976</v>
       </c>
       <c r="M5">
-        <v>1.046000902539384</v>
+        <v>1.045260020464255</v>
       </c>
       <c r="N5">
-        <v>1.015607617599586</v>
+        <v>1.016275341729931</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044979005570182</v>
+        <v>1.044392650461667</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042071714840447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040812870923089</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02298793313116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018163673881847</v>
+        <v>1.016963288380348</v>
       </c>
       <c r="D6">
-        <v>1.034502998434842</v>
+        <v>1.032674079509101</v>
       </c>
       <c r="E6">
-        <v>1.029692666962349</v>
+        <v>1.02876212673619</v>
       </c>
       <c r="F6">
-        <v>1.036702685365318</v>
+        <v>1.035944046305963</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053048984952316</v>
+        <v>1.052118411509943</v>
       </c>
       <c r="J6">
-        <v>1.036596611479992</v>
+        <v>1.035424594013786</v>
       </c>
       <c r="K6">
-        <v>1.04395144384848</v>
+        <v>1.042142276757349</v>
       </c>
       <c r="L6">
-        <v>1.03919324726653</v>
+        <v>1.038272861422041</v>
       </c>
       <c r="M6">
-        <v>1.046127487855849</v>
+        <v>1.045376988987448</v>
       </c>
       <c r="N6">
-        <v>1.015657965912134</v>
+        <v>1.016310650680569</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045079188736527</v>
+        <v>1.044485222702992</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042161851409312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040892772489846</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023010621794794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016715619224865</v>
+        <v>1.015619292490408</v>
       </c>
       <c r="D7">
-        <v>1.033499454953462</v>
+        <v>1.031783223178689</v>
       </c>
       <c r="E7">
-        <v>1.028533885536717</v>
+        <v>1.027690774543646</v>
       </c>
       <c r="F7">
-        <v>1.035603677871717</v>
+        <v>1.034914568792063</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052700500251989</v>
+        <v>1.05182755852743</v>
       </c>
       <c r="J7">
-        <v>1.035695253904843</v>
+        <v>1.034625773911498</v>
       </c>
       <c r="K7">
-        <v>1.043206836246046</v>
+        <v>1.041509730521082</v>
       </c>
       <c r="L7">
-        <v>1.038296819498821</v>
+        <v>1.037463206549625</v>
       </c>
       <c r="M7">
-        <v>1.045287715626771</v>
+        <v>1.044606238436084</v>
       </c>
       <c r="N7">
-        <v>1.015341931806878</v>
+        <v>1.01611769732625</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044414569208026</v>
+        <v>1.043875228412588</v>
       </c>
       <c r="Q7">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041639543698386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040450122797946</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022874691270614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010518208400319</v>
+        <v>1.009849782502021</v>
       </c>
       <c r="D8">
-        <v>1.029199660527568</v>
+        <v>1.027952656031868</v>
       </c>
       <c r="E8">
-        <v>1.023585672170302</v>
+        <v>1.023101310534725</v>
       </c>
       <c r="F8">
-        <v>1.030920139990941</v>
+        <v>1.030516634704944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051172893852139</v>
+        <v>1.050539504330584</v>
       </c>
       <c r="J8">
-        <v>1.031825637974696</v>
+        <v>1.031176071213481</v>
       </c>
       <c r="K8">
-        <v>1.039998112974463</v>
+        <v>1.038766848558542</v>
       </c>
       <c r="L8">
-        <v>1.034455363850499</v>
+        <v>1.033977194348924</v>
       </c>
       <c r="M8">
-        <v>1.041696953965092</v>
+        <v>1.041298515477053</v>
       </c>
       <c r="N8">
-        <v>1.013980090244459</v>
+        <v>1.015220214116225</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04157273188864</v>
+        <v>1.041257394939534</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039375292468762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03851572755247</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022275114493234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.999037634405004</v>
+        <v>0.9991512109692202</v>
       </c>
       <c r="D9">
-        <v>1.021232736530576</v>
+        <v>1.020845002459264</v>
       </c>
       <c r="E9">
-        <v>1.014469481154808</v>
+        <v>1.014638476377438</v>
       </c>
       <c r="F9">
-        <v>1.022323683896843</v>
+        <v>1.022441384360164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048217674070993</v>
+        <v>1.04802120545659</v>
       </c>
       <c r="J9">
-        <v>1.024624422111618</v>
+        <v>1.024733977809958</v>
       </c>
       <c r="K9">
-        <v>1.033990470480119</v>
+        <v>1.033608700534499</v>
       </c>
       <c r="L9">
-        <v>1.027332083515308</v>
+        <v>1.027498436587569</v>
       </c>
       <c r="M9">
-        <v>1.035064667862151</v>
+        <v>1.035180563923593</v>
       </c>
       <c r="N9">
-        <v>1.011435695753206</v>
+        <v>1.013446352658132</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03632371075695</v>
+        <v>1.036415435248569</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035124293486525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034865119988886</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021119564286747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9911045227041363</v>
+        <v>0.9918192491795971</v>
       </c>
       <c r="D10">
-        <v>1.015741749818618</v>
+        <v>1.015990832829756</v>
       </c>
       <c r="E10">
-        <v>1.008259935406063</v>
+        <v>1.008930786131814</v>
       </c>
       <c r="F10">
-        <v>1.016534921373464</v>
+        <v>1.01705337923397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046113185629967</v>
+        <v>1.046239200828043</v>
       </c>
       <c r="J10">
-        <v>1.019675573322188</v>
+        <v>1.020361244819518</v>
       </c>
       <c r="K10">
-        <v>1.029832482211932</v>
+        <v>1.030077247899597</v>
       </c>
       <c r="L10">
-        <v>1.022481638657927</v>
+        <v>1.023140643197938</v>
       </c>
       <c r="M10">
-        <v>1.030611915347194</v>
+        <v>1.031121408048442</v>
       </c>
       <c r="N10">
-        <v>1.009708937923893</v>
+        <v>1.01237406420368</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032851418336403</v>
+        <v>1.033254626400446</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032201172536583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032386698756681</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020329978383856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9885412458466085</v>
+        <v>0.9894742337202665</v>
       </c>
       <c r="D11">
-        <v>1.014000664087232</v>
+        <v>1.014482472632564</v>
       </c>
       <c r="E11">
-        <v>1.006664837382407</v>
+        <v>1.007501728878354</v>
       </c>
       <c r="F11">
-        <v>1.015436667958116</v>
+        <v>1.01609078184951</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045513592239928</v>
+        <v>1.045757190523753</v>
       </c>
       <c r="J11">
-        <v>1.018398616095713</v>
+        <v>1.019291548837201</v>
       </c>
       <c r="K11">
-        <v>1.028663291677096</v>
+        <v>1.02913634296841</v>
       </c>
       <c r="L11">
-        <v>1.021462149715035</v>
+        <v>1.022283546789347</v>
       </c>
       <c r="M11">
-        <v>1.030073226933211</v>
+        <v>1.030715498076755</v>
       </c>
       <c r="N11">
-        <v>1.009441666251505</v>
+        <v>1.012427672222849</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032864157924821</v>
+        <v>1.033372186901437</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031407489434734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031757638623083</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020191719189215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9879315199507345</v>
+        <v>0.988907200814495</v>
       </c>
       <c r="D12">
-        <v>1.013596818224581</v>
+        <v>1.014132396542028</v>
       </c>
       <c r="E12">
-        <v>1.006487855702025</v>
+        <v>1.007345711797297</v>
       </c>
       <c r="F12">
-        <v>1.015554481882822</v>
+        <v>1.016228227796772</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045412009437635</v>
+        <v>1.045682731876895</v>
       </c>
       <c r="J12">
-        <v>1.018255569662919</v>
+        <v>1.019188562152653</v>
       </c>
       <c r="K12">
-        <v>1.028468079854882</v>
+        <v>1.028993759881718</v>
       </c>
       <c r="L12">
-        <v>1.021491805321998</v>
+        <v>1.022333519854541</v>
       </c>
       <c r="M12">
-        <v>1.030389628962407</v>
+        <v>1.031050987683249</v>
       </c>
       <c r="N12">
-        <v>1.00952652476542</v>
+        <v>1.012583972603854</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033442634574397</v>
+        <v>1.033965582609638</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031269467110789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031656829075058</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020207446131707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.988805828139371</v>
+        <v>0.9896734103522686</v>
       </c>
       <c r="D13">
-        <v>1.014215898777062</v>
+        <v>1.014658076791529</v>
       </c>
       <c r="E13">
-        <v>1.007410311528107</v>
+        <v>1.008163466978729</v>
       </c>
       <c r="F13">
-        <v>1.016642676088152</v>
+        <v>1.017235986227972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045703034256514</v>
+        <v>1.045926560756828</v>
       </c>
       <c r="J13">
-        <v>1.018997234316463</v>
+        <v>1.01982708655741</v>
       </c>
       <c r="K13">
-        <v>1.029032583019356</v>
+        <v>1.029466628246874</v>
       </c>
       <c r="L13">
-        <v>1.022353343695267</v>
+        <v>1.023092407003396</v>
       </c>
       <c r="M13">
-        <v>1.031414839120343</v>
+        <v>1.031997306569054</v>
       </c>
       <c r="N13">
-        <v>1.009901875906591</v>
+        <v>1.012800701793156</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034531156839008</v>
+        <v>1.034991607524604</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031666088659319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031988412151543</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020349459594821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9900839252604018</v>
+        <v>0.9908103238239013</v>
       </c>
       <c r="D14">
-        <v>1.015109542900005</v>
+        <v>1.015421859624925</v>
       </c>
       <c r="E14">
-        <v>1.008546554679077</v>
+        <v>1.009172837481121</v>
       </c>
       <c r="F14">
-        <v>1.017836868519178</v>
+        <v>1.018331047299996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046082745629442</v>
+        <v>1.046240654684264</v>
       </c>
       <c r="J14">
-        <v>1.019911376098972</v>
+        <v>1.020606673463623</v>
       </c>
       <c r="K14">
-        <v>1.029768634773822</v>
+        <v>1.030075282380715</v>
       </c>
       <c r="L14">
-        <v>1.023325835327512</v>
+        <v>1.023940561010423</v>
       </c>
       <c r="M14">
-        <v>1.032446607147317</v>
+        <v>1.032931880116849</v>
       </c>
       <c r="N14">
-        <v>1.010293722541022</v>
+        <v>1.012981015201336</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035520671442566</v>
+        <v>1.035904236234454</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032187936723057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032420314056671</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02050632835829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9907276644261346</v>
+        <v>0.9913868142926888</v>
       </c>
       <c r="D15">
-        <v>1.015558464059207</v>
+        <v>1.01580702167533</v>
       </c>
       <c r="E15">
-        <v>1.009076883030476</v>
+        <v>1.009645080267374</v>
       </c>
       <c r="F15">
-        <v>1.018360078366055</v>
+        <v>1.01880842176189</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046265105015146</v>
+        <v>1.046390790852593</v>
       </c>
       <c r="J15">
-        <v>1.02033787845156</v>
+        <v>1.020969066950905</v>
       </c>
       <c r="K15">
-        <v>1.03012248440648</v>
+        <v>1.030366565864875</v>
       </c>
       <c r="L15">
-        <v>1.023758640928476</v>
+        <v>1.024316438187675</v>
       </c>
       <c r="M15">
-        <v>1.032873810017484</v>
+        <v>1.033314139029227</v>
       </c>
       <c r="N15">
-        <v>1.010458631717064</v>
+        <v>1.013045950346602</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035895977846445</v>
+        <v>1.036244009321295</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032444016072955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032632722301159</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02057586944967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9939235876096207</v>
+        <v>0.9942764885107762</v>
       </c>
       <c r="D16">
-        <v>1.017770261278216</v>
+        <v>1.017715390299278</v>
       </c>
       <c r="E16">
-        <v>1.011533270234188</v>
+        <v>1.011848070342973</v>
       </c>
       <c r="F16">
-        <v>1.02063526274123</v>
+        <v>1.02088132057551</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04712062414969</v>
+        <v>1.047092860765768</v>
       </c>
       <c r="J16">
-        <v>1.022302817380383</v>
+        <v>1.022641525625568</v>
       </c>
       <c r="K16">
-        <v>1.031790155240166</v>
+        <v>1.031736228033553</v>
       </c>
       <c r="L16">
-        <v>1.025661288636688</v>
+        <v>1.025970590006259</v>
       </c>
       <c r="M16">
-        <v>1.03460606123075</v>
+        <v>1.034847919146086</v>
       </c>
       <c r="N16">
-        <v>1.011121308428763</v>
+        <v>1.013275304275713</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037226322529831</v>
+        <v>1.037417490096913</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033626297599638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.0336045900867</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020875227614838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9957081114390411</v>
+        <v>0.9959113169349089</v>
       </c>
       <c r="D17">
-        <v>1.019000949574479</v>
+        <v>1.018789255765241</v>
       </c>
       <c r="E17">
-        <v>1.012825580376505</v>
+        <v>1.013021143355152</v>
       </c>
       <c r="F17">
-        <v>1.021752112696303</v>
+        <v>1.021901926893903</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047575223899233</v>
+        <v>1.047468070484772</v>
       </c>
       <c r="J17">
-        <v>1.023332225592319</v>
+        <v>1.023527529032728</v>
       </c>
       <c r="K17">
-        <v>1.032683828266935</v>
+        <v>1.032475670939296</v>
       </c>
       <c r="L17">
-        <v>1.0266124066689</v>
+        <v>1.02680465273088</v>
       </c>
       <c r="M17">
-        <v>1.035389203022185</v>
+        <v>1.035536532933455</v>
       </c>
       <c r="N17">
-        <v>1.011425437110681</v>
+        <v>1.013387395584427</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037715971749379</v>
+        <v>1.037832434860132</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034260751456723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034130240329881</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02102396778259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9964183021360252</v>
+        <v>0.9965813385083667</v>
       </c>
       <c r="D18">
-        <v>1.019478141185441</v>
+        <v>1.019213524954941</v>
       </c>
       <c r="E18">
-        <v>1.013189369080945</v>
+        <v>1.013360952692365</v>
       </c>
       <c r="F18">
-        <v>1.021907053235141</v>
+        <v>1.022035607222528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047717536733853</v>
+        <v>1.047583566284325</v>
       </c>
       <c r="J18">
-        <v>1.023617307947842</v>
+        <v>1.023774123809621</v>
       </c>
       <c r="K18">
-        <v>1.032968918367302</v>
+        <v>1.032708649492843</v>
       </c>
       <c r="L18">
-        <v>1.02678425534436</v>
+        <v>1.026952976341085</v>
       </c>
       <c r="M18">
-        <v>1.035358061210144</v>
+        <v>1.035484517118235</v>
       </c>
       <c r="N18">
-        <v>1.01142833386842</v>
+        <v>1.01335440389238</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037452970353632</v>
+        <v>1.037552953684444</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034450653119322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034282160991148</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021044264033863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9961663465058699</v>
+        <v>0.9963801190985576</v>
       </c>
       <c r="D19">
-        <v>1.019288223908564</v>
+        <v>1.019059917935198</v>
       </c>
       <c r="E19">
-        <v>1.012717418516905</v>
+        <v>1.012943746493291</v>
       </c>
       <c r="F19">
-        <v>1.02118704469807</v>
+        <v>1.021356439385352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047587335798469</v>
+        <v>1.047471741459851</v>
       </c>
       <c r="J19">
-        <v>1.023239491815473</v>
+        <v>1.023445150647777</v>
       </c>
       <c r="K19">
-        <v>1.032719316783027</v>
+        <v>1.032494743218318</v>
       </c>
       <c r="L19">
-        <v>1.026256799037992</v>
+        <v>1.026479367020862</v>
       </c>
       <c r="M19">
-        <v>1.034587178193398</v>
+        <v>1.034753818164115</v>
       </c>
       <c r="N19">
-        <v>1.011173503053382</v>
+        <v>1.013178922049172</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036516740082867</v>
+        <v>1.03664853860446</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034280588214383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034137960136102</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020952682242822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9932075778627333</v>
+        <v>0.9937264346165401</v>
       </c>
       <c r="D20">
-        <v>1.017209503560412</v>
+        <v>1.017265682346106</v>
       </c>
       <c r="E20">
-        <v>1.009912444025751</v>
+        <v>1.010416179863924</v>
       </c>
       <c r="F20">
-        <v>1.018070456849472</v>
+        <v>1.01845626433969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046686670522198</v>
+        <v>1.046715103664454</v>
       </c>
       <c r="J20">
-        <v>1.021002870530787</v>
+        <v>1.021501352254906</v>
       </c>
       <c r="K20">
-        <v>1.030956347147338</v>
+        <v>1.031011580800166</v>
       </c>
       <c r="L20">
-        <v>1.023783205995514</v>
+        <v>1.024278313095486</v>
       </c>
       <c r="M20">
-        <v>1.031802830811589</v>
+        <v>1.032182164454751</v>
       </c>
       <c r="N20">
-        <v>1.010188019059962</v>
+        <v>1.012590838463796</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033783288142822</v>
+        <v>1.034083492999066</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03303803777195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033093643728511</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020543285655782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.987033379305303</v>
+        <v>0.988189657486252</v>
       </c>
       <c r="D21">
-        <v>1.012932186676491</v>
+        <v>1.013602209746179</v>
       </c>
       <c r="E21">
-        <v>1.0050169254201</v>
+        <v>1.00606789663526</v>
       </c>
       <c r="F21">
-        <v>1.013438373778895</v>
+        <v>1.014257871230516</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045003237702162</v>
+        <v>1.045341960330401</v>
       </c>
       <c r="J21">
-        <v>1.017083414405568</v>
+        <v>1.018189600017049</v>
       </c>
       <c r="K21">
-        <v>1.027672628059336</v>
+        <v>1.028330386471338</v>
       </c>
       <c r="L21">
-        <v>1.01990386991941</v>
+        <v>1.02093521557897</v>
       </c>
       <c r="M21">
-        <v>1.028169547543035</v>
+        <v>1.028974066604618</v>
       </c>
       <c r="N21">
-        <v>1.008785868382581</v>
+        <v>1.0121119051067</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030866632352868</v>
+        <v>1.031503363619072</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030719569334466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031201530126198</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019942964580089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,105 +1679,123 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9830960456199753</v>
+        <v>0.9846614871607844</v>
       </c>
       <c r="D22">
-        <v>1.010204902793663</v>
+        <v>1.011267990612067</v>
       </c>
       <c r="E22">
-        <v>1.001926323327952</v>
+        <v>1.003329066628383</v>
       </c>
       <c r="F22">
-        <v>1.010545470156602</v>
+        <v>1.011643714705146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04391695264603</v>
+        <v>1.044453999900596</v>
       </c>
       <c r="J22">
-        <v>1.014596526834221</v>
+        <v>1.016089983865567</v>
       </c>
       <c r="K22">
-        <v>1.025576873531513</v>
+        <v>1.02661948325122</v>
       </c>
       <c r="L22">
-        <v>1.017459715722421</v>
+        <v>1.018834861283676</v>
       </c>
       <c r="M22">
-        <v>1.025910874453515</v>
+        <v>1.026987983306602</v>
       </c>
       <c r="N22">
-        <v>1.007899818235614</v>
+        <v>1.01180644530957</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029079017423668</v>
+        <v>1.029931490131358</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029224189976372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029976976978324</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019559572689176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9851790341416607</v>
+        <v>0.9865108570355783</v>
       </c>
       <c r="D23">
-        <v>1.011642938066873</v>
+        <v>1.012485162130653</v>
       </c>
       <c r="E23">
-        <v>1.00355767102013</v>
+        <v>1.004758906067405</v>
       </c>
       <c r="F23">
-        <v>1.012074399814223</v>
+        <v>1.013013135885098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044489713144394</v>
+        <v>1.044915346255356</v>
       </c>
       <c r="J23">
-        <v>1.01590781729831</v>
+        <v>1.017180288929214</v>
       </c>
       <c r="K23">
-        <v>1.02667966840777</v>
+        <v>1.02750609806426</v>
       </c>
       <c r="L23">
-        <v>1.018747791851159</v>
+        <v>1.019926033219229</v>
       </c>
       <c r="M23">
-        <v>1.027103034573098</v>
+        <v>1.028024188096303</v>
       </c>
       <c r="N23">
-        <v>1.008361349582268</v>
+        <v>1.011915811848546</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030022546850092</v>
+        <v>1.030751588522384</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.0299942249286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030593216600918</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019753885163079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9931941636844106</v>
+        <v>0.9937206595964582</v>
       </c>
       <c r="D24">
-        <v>1.017190438997153</v>
+        <v>1.017250600624056</v>
       </c>
       <c r="E24">
-        <v>1.009859327527139</v>
+        <v>1.01037196185068</v>
       </c>
       <c r="F24">
-        <v>1.017985644014457</v>
+        <v>1.018378025874522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046668802918438</v>
+        <v>1.046699252336202</v>
       </c>
       <c r="J24">
-        <v>1.020956739377973</v>
+        <v>1.021462588805225</v>
       </c>
       <c r="K24">
-        <v>1.030922249898891</v>
+        <v>1.030981400641725</v>
       </c>
       <c r="L24">
-        <v>1.023715486641243</v>
+        <v>1.024219349997202</v>
       </c>
       <c r="M24">
-        <v>1.031704105678698</v>
+        <v>1.032089910460962</v>
       </c>
       <c r="N24">
-        <v>1.010147532624684</v>
+        <v>1.012561543858481</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033664030581141</v>
+        <v>1.033969372064839</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03298641952965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033042126126695</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020526443152614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002096800306123</v>
+        <v>1.001983171562709</v>
       </c>
       <c r="D25">
-        <v>1.023362680127577</v>
+        <v>1.022733837374439</v>
       </c>
       <c r="E25">
-        <v>1.016895981370136</v>
+        <v>1.0168736637215</v>
       </c>
       <c r="F25">
-        <v>1.024604525118082</v>
+        <v>1.024569870714262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049024985685552</v>
+        <v>1.048706148683046</v>
       </c>
       <c r="J25">
-        <v>1.026553804223106</v>
+        <v>1.026443977902822</v>
       </c>
       <c r="K25">
-        <v>1.03560883152909</v>
+        <v>1.034989200335461</v>
       </c>
       <c r="L25">
-        <v>1.029237551138478</v>
+        <v>1.029215565466177</v>
       </c>
       <c r="M25">
-        <v>1.036832527575843</v>
+        <v>1.036798378871752</v>
       </c>
       <c r="N25">
-        <v>1.012126325995028</v>
+        <v>1.01389033169608</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037722859981024</v>
+        <v>1.03769583346617</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036297213822279</v>
+        <v>1.035872656332028</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021433672905292</v>
       </c>
     </row>
   </sheetData>
